--- a/app_demo1/testcases/interface.xlsx
+++ b/app_demo1/testcases/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="20730" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
-  <si>
-    <t>接口</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>编号</t>
   </si>
@@ -87,8 +84,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -107,9 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,53 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,16 +142,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,17 +202,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,36 +250,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,66 +394,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,30 +418,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,30 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,16 +445,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +518,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,147 +561,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,196 +1046,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
